--- a/Datasets/housinggame_session_19_250923_surveys/251119_250923_WhereWeMove sessions - presurvey.xlsx
+++ b/Datasets/housinggame_session_19_250923_surveys/251119_250923_WhereWeMove sessions - presurvey.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/housinggame_session_19_250923_EPA_IntroDays_Overasselt_surveys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/housinggame_session_19_250923_surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_EFBA9B1DEF456A3A6E1C593D2166523779D5828F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D714FC-5BAF-46EF-8E16-F151B9AD7816}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_EFBA9B1DEF456A3A6E1C593D2166523779D5828F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92195895-3577-4054-9993-0F9CD73C0B13}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AH$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$3:$AH$56</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1286,127 +1286,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+      <c r="Z1">
+        <v>26</v>
+      </c>
+      <c r="AA1">
+        <v>27</v>
+      </c>
+      <c r="AB1">
+        <v>28</v>
+      </c>
+      <c r="AC1">
+        <v>29</v>
+      </c>
+      <c r="AD1">
+        <v>30</v>
+      </c>
+      <c r="AE1">
+        <v>31</v>
+      </c>
+      <c r="AF1">
+        <v>32</v>
+      </c>
+      <c r="AG1">
+        <v>33</v>
+      </c>
+      <c r="AH1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1418,218 +1419,218 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="4" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>45923.101909722223</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>45923.103981481479</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>179</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45923.103994722223</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45923.101631944446</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45923.104432870372</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="1">
-        <v>45923.104438032409</v>
+        <v>45923.103994722223</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>66</v>
@@ -1641,28 +1642,28 @@
         <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>73</v>
@@ -1671,25 +1672,25 @@
         <v>73</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>87</v>
@@ -1698,7 +1699,7 @@
         <v>87</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>97</v>
@@ -1707,33 +1708,33 @@
         <v>97</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45923.102685185186</v>
+        <v>45923.101631944446</v>
       </c>
       <c r="B5" s="1">
-        <v>45923.104467592595</v>
+        <v>45923.104432870372</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="1">
-        <v>45923.10448076389</v>
+        <v>45923.104438032409</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>66</v>
@@ -1745,58 +1746,58 @@
         <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>87</v>
@@ -1811,33 +1812,33 @@
         <v>97</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45923.1016087963</v>
+        <v>45923.102685185186</v>
       </c>
       <c r="B6" s="1">
-        <v>45923.10465277778</v>
+        <v>45923.104467592595</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
       <c r="D6">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="1">
-        <v>45923.104664675928</v>
+        <v>45923.10448076389</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>66</v>
@@ -1849,49 +1850,49 @@
         <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="U6" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>97</v>
@@ -1900,48 +1901,48 @@
         <v>80</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45923.102534722224</v>
+        <v>45923.1016087963</v>
       </c>
       <c r="B7" s="1">
-        <v>45923.10491898148</v>
+        <v>45923.10465277778</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="1">
-        <v>45923.10492513889</v>
+        <v>45923.104664675928</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>66</v>
@@ -1953,19 +1954,19 @@
         <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>73</v>
@@ -1983,31 +1984,31 @@
         <v>73</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>87</v>
@@ -2016,18 +2017,18 @@
         <v>97</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45923.102673611109</v>
+        <v>45923.102534722224</v>
       </c>
       <c r="B8" s="1">
         <v>45923.10491898148</v>
@@ -2036,16 +2037,16 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="1">
-        <v>45923.10493296296</v>
+        <v>45923.10492513889</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>66</v>
@@ -2057,16 +2058,16 @@
         <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>71</v>
@@ -2075,10 +2076,10 @@
         <v>73</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>73</v>
@@ -2087,69 +2088,69 @@
         <v>73</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="AG8" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45923.103564814817</v>
+        <v>45923.102673611109</v>
       </c>
       <c r="B9" s="1">
-        <v>45923.105405092596</v>
+        <v>45923.10491898148</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="1">
-        <v>45923.105415486112</v>
+        <v>45923.10493296296</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>66</v>
@@ -2161,28 +2162,28 @@
         <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>73</v>
@@ -2191,22 +2192,22 @@
         <v>73</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>80</v>
@@ -2215,7 +2216,7 @@
         <v>97</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>94</v>
@@ -2230,30 +2231,30 @@
         <v>97</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45923.102719907409</v>
+        <v>45923.103564814817</v>
       </c>
       <c r="B10" s="1">
-        <v>45923.105509259258</v>
+        <v>45923.105405092596</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="D10">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="1">
-        <v>45923.105520636571</v>
+        <v>45923.105415486112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>66</v>
@@ -2265,99 +2266,99 @@
         <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45923.101666666669</v>
+        <v>45923.102719907409</v>
       </c>
       <c r="B11" s="1">
-        <v>45923.105555555558</v>
+        <v>45923.105509259258</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11">
-        <v>336</v>
+        <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1">
-        <v>45923.105570914355</v>
+        <v>45923.105520636571</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>66</v>
@@ -2369,99 +2370,99 @@
         <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AC11" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE11" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AF11" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45923.102743055555</v>
+        <v>45923.101666666669</v>
       </c>
       <c r="B12" s="1">
-        <v>45923.10560185185</v>
+        <v>45923.105555555558</v>
       </c>
       <c r="C12">
         <v>100</v>
       </c>
       <c r="D12">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="1">
-        <v>45923.105611064813</v>
+        <v>45923.105570914355</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>66</v>
@@ -2473,10 +2474,10 @@
         <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>70</v>
@@ -2488,49 +2489,49 @@
         <v>73</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AE12" s="2" t="s">
         <v>87</v>
@@ -2539,33 +2540,33 @@
         <v>87</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45923.102314814816</v>
+        <v>45923.102743055555</v>
       </c>
       <c r="B13" s="1">
-        <v>45923.105914351851</v>
+        <v>45923.10560185185</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="1">
-        <v>45923.105924016207</v>
+        <v>45923.105611064813</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>66</v>
@@ -2577,10 +2578,10 @@
         <v>68</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>70</v>
@@ -2589,10 +2590,10 @@
         <v>73</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>83</v>
@@ -2601,75 +2602,75 @@
         <v>83</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="14" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>45923.101840277777</v>
+        <v>45923.102314814816</v>
       </c>
       <c r="B14" s="1">
-        <v>45923.10597222222</v>
+        <v>45923.105914351851</v>
       </c>
       <c r="C14">
         <v>100</v>
       </c>
       <c r="D14">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="1">
-        <v>45923.105978622683</v>
+        <v>45923.105924016207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>66</v>
@@ -2681,49 +2682,49 @@
         <v>68</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z14" s="2" t="s">
         <v>97</v>
@@ -2732,48 +2733,48 @@
         <v>80</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AF14" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>45923.103437500002</v>
+        <v>45923.101840277777</v>
       </c>
       <c r="B15" s="1">
-        <v>45923.106180555558</v>
+        <v>45923.10597222222</v>
       </c>
       <c r="C15">
         <v>100</v>
       </c>
       <c r="D15">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="1">
-        <v>45923.106187569443</v>
+        <v>45923.105978622683</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>66</v>
@@ -2785,10 +2786,10 @@
         <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>70</v>
@@ -2803,31 +2804,31 @@
         <v>71</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Z15" s="2" t="s">
         <v>97</v>
@@ -2836,48 +2837,48 @@
         <v>80</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>45923.101944444446</v>
+        <v>45923.103437500002</v>
       </c>
       <c r="B16" s="1">
-        <v>45923.106226851851</v>
+        <v>45923.106180555558</v>
       </c>
       <c r="C16">
         <v>100</v>
       </c>
       <c r="D16">
-        <v>370</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1">
-        <v>45923.106241030095</v>
+        <v>45923.106187569443</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>66</v>
@@ -2889,10 +2890,10 @@
         <v>68</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>70</v>
@@ -2904,46 +2905,46 @@
         <v>71</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="S16" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>87</v>
@@ -2961,27 +2962,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45923.104930555557</v>
+        <v>45923.101944444446</v>
       </c>
       <c r="B17" s="1">
-        <v>45923.106261574074</v>
+        <v>45923.106226851851</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="D17">
-        <v>114</v>
+        <v>370</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F17" s="1">
-        <v>45923.106269745367</v>
+        <v>45923.106241030095</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>66</v>
@@ -2993,28 +2994,28 @@
         <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>73</v>
@@ -3023,40 +3024,40 @@
         <v>73</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AG17" s="2" t="s">
         <v>97</v>
@@ -3065,27 +3066,27 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>45923.101736111108</v>
+        <v>45923.104930555557</v>
       </c>
       <c r="B18" s="1">
-        <v>45923.106342592589</v>
+        <v>45923.106261574074</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
       <c r="D18">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="1">
-        <v>45923.10635234954</v>
+        <v>45923.106269745367</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>66</v>
@@ -3097,28 +3098,28 @@
         <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>73</v>
@@ -3127,69 +3128,69 @@
         <v>73</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>76</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AH18" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>45923.103136574071</v>
+        <v>45923.101736111108</v>
       </c>
       <c r="B19" s="1">
-        <v>45923.106388888889</v>
+        <v>45923.106342592589</v>
       </c>
       <c r="C19">
         <v>100</v>
       </c>
       <c r="D19">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="1">
-        <v>45923.106402557867</v>
+        <v>45923.10635234954</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>66</v>
@@ -3201,13 +3202,13 @@
         <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>73</v>
@@ -3216,10 +3217,10 @@
         <v>73</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>73</v>
@@ -3231,19 +3232,19 @@
         <v>73</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>97</v>
@@ -3252,48 +3253,48 @@
         <v>97</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AC19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AF19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AH19" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45923.103865740741</v>
+        <v>45923.103136574071</v>
       </c>
       <c r="B20" s="1">
-        <v>45923.106840277775</v>
+        <v>45923.106388888889</v>
       </c>
       <c r="C20">
         <v>100</v>
       </c>
       <c r="D20">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="1">
-        <v>45923.10685045139</v>
+        <v>45923.106402557867</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>66</v>
@@ -3305,64 +3306,64 @@
         <v>68</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="AD20" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AE20" s="2" t="s">
         <v>97</v>
@@ -3371,33 +3372,33 @@
         <v>94</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH20" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>45923.102465277778</v>
+        <v>45923.103865740741</v>
       </c>
       <c r="B21" s="1">
-        <v>45923.106874999998</v>
+        <v>45923.106840277775</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
       <c r="D21">
-        <v>381</v>
+        <v>256</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="1">
-        <v>45923.106890208335</v>
+        <v>45923.10685045139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>66</v>
@@ -3409,37 +3410,37 @@
         <v>68</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>83</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>107</v>
@@ -3448,60 +3449,60 @@
         <v>95</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AA21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="AC21" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AD21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AE21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AG21" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>45923.101597222223</v>
+        <v>45923.102465277778</v>
       </c>
       <c r="B22" s="1">
-        <v>45923.10833333333</v>
+        <v>45923.106874999998</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
       <c r="D22">
-        <v>582</v>
+        <v>381</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="1">
-        <v>45923.108345509259</v>
+        <v>45923.106890208335</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>66</v>
@@ -3513,16 +3514,16 @@
         <v>68</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>106</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>71</v>
@@ -3531,10 +3532,10 @@
         <v>73</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>73</v>
@@ -3543,28 +3544,28 @@
         <v>73</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>95</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>114</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>97</v>
@@ -3573,7 +3574,7 @@
         <v>94</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AF22" s="2" t="s">
         <v>80</v>
@@ -3582,15 +3583,15 @@
         <v>80</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>45923.101643518516</v>
+        <v>45923.101597222223</v>
       </c>
       <c r="B23" s="1">
-        <v>45923.108391203707</v>
+        <v>45923.10833333333</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -3602,10 +3603,10 @@
         <v>65</v>
       </c>
       <c r="F23" s="1">
-        <v>45923.10839789352</v>
+        <v>45923.108345509259</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>66</v>
@@ -3617,40 +3618,40 @@
         <v>68</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>71</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="S23" s="2" t="s">
         <v>73</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>95</v>
@@ -3659,23 +3660,23 @@
         <v>109</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="Z23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AE23" s="2" t="s">
         <v>80</v>
       </c>
@@ -3686,30 +3687,30 @@
         <v>80</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>45923.103900462964</v>
+        <v>45923.101643518516</v>
       </c>
       <c r="B24" s="1">
-        <v>45923.108402777776</v>
+        <v>45923.108391203707</v>
       </c>
       <c r="C24">
         <v>100</v>
       </c>
       <c r="D24">
-        <v>389</v>
+        <v>582</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F24" s="1">
-        <v>45923.108412847221</v>
+        <v>45923.10839789352</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>66</v>
@@ -3721,99 +3722,99 @@
         <v>68</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="U24" s="2" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>79</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AF24" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>45923.102777777778</v>
+        <v>45923.103900462964</v>
       </c>
       <c r="B25" s="1">
-        <v>45923.108506944445</v>
+        <v>45923.108402777776</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
       <c r="D25">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="1">
-        <v>45923.108511516206</v>
+        <v>45923.108412847221</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>66</v>
@@ -3825,10 +3826,10 @@
         <v>68</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>70</v>
@@ -3843,7 +3844,7 @@
         <v>73</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>71</v>
@@ -3855,31 +3856,31 @@
         <v>73</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z25" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>97</v>
@@ -3888,36 +3889,36 @@
         <v>97</v>
       </c>
       <c r="AF25" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>45923.1015162037</v>
+        <v>45923.102777777778</v>
       </c>
       <c r="B26" s="1">
-        <v>45923.108611111114</v>
+        <v>45923.108506944445</v>
       </c>
       <c r="C26">
         <v>100</v>
       </c>
       <c r="D26">
-        <v>612</v>
+        <v>494</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="1">
-        <v>45923.108616469908</v>
+        <v>45923.108511516206</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>66</v>
@@ -3929,16 +3930,16 @@
         <v>68</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>71</v>
@@ -3950,7 +3951,7 @@
         <v>71</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>73</v>
@@ -3959,16 +3960,16 @@
         <v>73</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>86</v>
@@ -3983,45 +3984,45 @@
         <v>97</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF26" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AH26" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>45923.101701388892</v>
+        <v>45923.1015162037</v>
       </c>
       <c r="B27" s="1">
-        <v>45923.10869212963</v>
+        <v>45923.108611111114</v>
       </c>
       <c r="C27">
         <v>100</v>
       </c>
       <c r="D27">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="1">
-        <v>45923.108708761574</v>
+        <v>45923.108616469908</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>66</v>
@@ -4033,46 +4034,46 @@
         <v>68</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="W27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>86</v>
@@ -4081,51 +4082,51 @@
         <v>97</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AB27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AF27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AH27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>45923.104791666665</v>
+        <v>45923.101701388892</v>
       </c>
       <c r="B28" s="1">
-        <v>45923.109016203707</v>
+        <v>45923.10869212963</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
       <c r="D28">
-        <v>364</v>
+        <v>604</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="1">
-        <v>45923.109022349534</v>
+        <v>45923.108708761574</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>66</v>
@@ -4137,37 +4138,37 @@
         <v>68</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>76</v>
@@ -4176,60 +4177,60 @@
         <v>95</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="AC28" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH28" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="180" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>45923.25571759259</v>
+        <v>45923.104791666665</v>
       </c>
       <c r="B29" s="1">
-        <v>45923.255787037036</v>
+        <v>45923.109016203707</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="1">
-        <v>45923.255792222219</v>
+        <v>45923.109022349534</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>66</v>
@@ -4238,102 +4239,102 @@
         <v>67</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y29" s="2" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AE29" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AF29" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AH29" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>45923.254386574074</v>
+        <v>45923.25571759259</v>
       </c>
       <c r="B30" s="1">
-        <v>45923.25681712963</v>
+        <v>45923.255787037036</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
       <c r="D30">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="1">
-        <v>45923.256824849537</v>
+        <v>45923.255792222219</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>66</v>
@@ -4342,102 +4343,102 @@
         <v>67</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AE30" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF30" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>45923.254490740743</v>
+        <v>45923.254386574074</v>
       </c>
       <c r="B31" s="1">
-        <v>45923.257777777777</v>
+        <v>45923.25681712963</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="1">
-        <v>45923.257790682874</v>
+        <v>45923.256824849537</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>66</v>
@@ -4449,28 +4450,28 @@
         <v>68</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>73</v>
@@ -4479,7 +4480,7 @@
         <v>73</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>107</v>
@@ -4491,10 +4492,10 @@
         <v>78</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>80</v>
@@ -4503,30 +4504,30 @@
         <v>87</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AF31" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH31" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>45923.254803240743</v>
+        <v>45923.254490740743</v>
       </c>
       <c r="B32" s="1">
-        <v>45923.258090277777</v>
+        <v>45923.257777777777</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -4538,10 +4539,10 @@
         <v>65</v>
       </c>
       <c r="F32" s="1">
-        <v>45923.258094803241</v>
+        <v>45923.257790682874</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>66</v>
@@ -4553,16 +4554,16 @@
         <v>68</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>71</v>
@@ -4571,10 +4572,10 @@
         <v>73</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>73</v>
@@ -4583,69 +4584,69 @@
         <v>73</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W32" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>114</v>
       </c>
       <c r="Z32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AE32" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AF32" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>45923.255868055552</v>
+        <v>45923.254803240743</v>
       </c>
       <c r="B33" s="1">
-        <v>45923.258125</v>
+        <v>45923.258090277777</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F33" s="1">
-        <v>45923.25813548611</v>
+        <v>45923.258094803241</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>66</v>
@@ -4657,28 +4658,28 @@
         <v>68</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>73</v>
@@ -4687,69 +4688,69 @@
         <v>73</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>85</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD33" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>45923.255729166667</v>
+        <v>45923.255868055552</v>
       </c>
       <c r="B34" s="1">
-        <v>45923.258217592593</v>
+        <v>45923.258125</v>
       </c>
       <c r="C34">
         <v>100</v>
       </c>
       <c r="D34">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="1">
-        <v>45923.258229479165</v>
+        <v>45923.25813548611</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>66</v>
@@ -4761,16 +4762,16 @@
         <v>68</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>72</v>
@@ -4779,10 +4780,10 @@
         <v>73</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>73</v>
@@ -4791,13 +4792,13 @@
         <v>73</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>78</v>
@@ -4809,51 +4810,51 @@
         <v>97</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AF34" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AG34" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>45923.256018518521</v>
+        <v>45923.255729166667</v>
       </c>
       <c r="B35" s="1">
-        <v>45923.258344907408</v>
+        <v>45923.258217592593</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F35" s="1">
-        <v>45923.25835596065</v>
+        <v>45923.258229479165</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>66</v>
@@ -4865,99 +4866,99 @@
         <v>68</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Y35" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH35" s="2" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="36" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>45923.254305555558</v>
+        <v>45923.256018518521</v>
       </c>
       <c r="B36" s="1">
-        <v>45923.258391203701</v>
+        <v>45923.258344907408</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="1">
-        <v>45923.258403842592</v>
+        <v>45923.25835596065</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>66</v>
@@ -4969,19 +4970,19 @@
         <v>68</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>73</v>
@@ -4993,75 +4994,75 @@
         <v>73</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Y36" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH36" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>45923.257060185184</v>
+        <v>45923.254305555558</v>
       </c>
       <c r="B37" s="1">
-        <v>45923.258842592593</v>
+        <v>45923.258391203701</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F37" s="1">
-        <v>45923.258851006947</v>
+        <v>45923.258403842592</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>66</v>
@@ -5073,25 +5074,25 @@
         <v>68</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>73</v>
@@ -5103,16 +5104,16 @@
         <v>73</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>107</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>86</v>
@@ -5121,51 +5122,51 @@
         <v>97</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AH37" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>45923.255740740744</v>
+        <v>45923.257060185184</v>
       </c>
       <c r="B38" s="1">
-        <v>45923.258912037039</v>
+        <v>45923.258842592593</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F38" s="1">
-        <v>45923.258920486114</v>
+        <v>45923.258851006947</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>66</v>
@@ -5177,22 +5178,22 @@
         <v>68</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>83</v>
@@ -5207,69 +5208,69 @@
         <v>73</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>95</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>45923.255648148152</v>
+        <v>45923.255740740744</v>
       </c>
       <c r="B39" s="1">
-        <v>45923.259201388886</v>
+        <v>45923.258912037039</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F39" s="1">
-        <v>45923.259214224534</v>
+        <v>45923.258920486114</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>66</v>
@@ -5281,28 +5282,28 @@
         <v>68</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>73</v>
@@ -5311,31 +5312,31 @@
         <v>73</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD39" s="2" t="s">
         <v>87</v>
@@ -5347,33 +5348,33 @@
         <v>97</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH39" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>45923.255706018521</v>
+        <v>45923.255648148152</v>
       </c>
       <c r="B40" s="1">
-        <v>45923.25953703704</v>
+        <v>45923.259201388886</v>
       </c>
       <c r="C40">
         <v>100</v>
       </c>
       <c r="D40">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F40" s="1">
-        <v>45923.259545034722</v>
+        <v>45923.259214224534</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>66</v>
@@ -5385,10 +5386,10 @@
         <v>68</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>70</v>
@@ -5397,16 +5398,16 @@
         <v>73</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>73</v>
@@ -5415,34 +5416,34 @@
         <v>73</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Y40" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AE40" s="2" t="s">
         <v>97</v>
@@ -5451,33 +5452,33 @@
         <v>97</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH40" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>45923.255486111113</v>
+        <v>45923.255706018521</v>
       </c>
       <c r="B41" s="1">
-        <v>45923.259571759256</v>
+        <v>45923.25953703704</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F41" s="1">
-        <v>45923.259586562497</v>
+        <v>45923.259545034722</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>66</v>
@@ -5489,28 +5490,28 @@
         <v>68</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="P41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="R41" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>73</v>
@@ -5519,10 +5520,10 @@
         <v>73</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W41" s="2" t="s">
         <v>95</v>
@@ -5531,57 +5532,57 @@
         <v>78</v>
       </c>
       <c r="Y41" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AA41" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AB41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="AC41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="42" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>45923.25571759259</v>
+        <v>45923.255486111113</v>
       </c>
       <c r="B42" s="1">
-        <v>45923.259675925925</v>
+        <v>45923.259571759256</v>
       </c>
       <c r="C42">
         <v>100</v>
       </c>
       <c r="D42">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F42" s="1">
-        <v>45923.25968722222</v>
+        <v>45923.259586562497</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>66</v>
@@ -5593,28 +5594,28 @@
         <v>68</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>73</v>
@@ -5623,7 +5624,7 @@
         <v>73</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>107</v>
@@ -5632,22 +5633,22 @@
         <v>95</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AD42" s="2" t="s">
         <v>97</v>
@@ -5656,36 +5657,36 @@
         <v>97</v>
       </c>
       <c r="AF42" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AG42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>45923.255497685182</v>
+        <v>45923.25571759259</v>
       </c>
       <c r="B43" s="1">
-        <v>45923.259710648148</v>
+        <v>45923.259675925925</v>
       </c>
       <c r="C43">
         <v>100</v>
       </c>
       <c r="D43">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F43" s="1">
-        <v>45923.259723483796</v>
+        <v>45923.25968722222</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>66</v>
@@ -5697,28 +5698,28 @@
         <v>68</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>73</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>73</v>
@@ -5727,19 +5728,19 @@
         <v>73</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="Y43" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z43" s="2" t="s">
         <v>97</v>
@@ -5748,30 +5749,30 @@
         <v>97</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AC43" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AE43" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AH43" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="150" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>45923.256226851852</v>
+        <v>45923.255497685182</v>
       </c>
       <c r="B44" s="1">
         <v>45923.259710648148</v>
@@ -5780,16 +5781,16 @@
         <v>100</v>
       </c>
       <c r="D44">
-        <v>300</v>
+        <v>364</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F44" s="1">
-        <v>45923.259727534722</v>
+        <v>45923.259723483796</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>66</v>
@@ -5801,10 +5802,10 @@
         <v>68</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>70</v>
@@ -5813,16 +5814,16 @@
         <v>73</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>83</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>73</v>
@@ -5831,7 +5832,7 @@
         <v>73</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>85</v>
@@ -5840,60 +5841,60 @@
         <v>92</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y44" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="Z44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="AH44" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="145" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>45923.255601851852</v>
+        <v>45923.256226851852</v>
       </c>
       <c r="B45" s="1">
-        <v>45923.25984953704</v>
+        <v>45923.259710648148</v>
       </c>
       <c r="C45">
         <v>100</v>
       </c>
       <c r="D45">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F45" s="1">
-        <v>45923.25985722222</v>
+        <v>45923.259727534722</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>66</v>
@@ -5905,10 +5906,10 @@
         <v>68</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>70</v>
@@ -5917,16 +5918,16 @@
         <v>73</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>83</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>73</v>
@@ -5935,25 +5936,25 @@
         <v>73</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="W45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>88</v>
@@ -5962,42 +5963,42 @@
         <v>94</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF45" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AH45" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>45923.25571759259</v>
+        <v>45923.255601851852</v>
       </c>
       <c r="B46" s="1">
-        <v>45923.260046296295</v>
+        <v>45923.25984953704</v>
       </c>
       <c r="C46">
         <v>100</v>
       </c>
       <c r="D46">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F46" s="1">
-        <v>45923.260061134257</v>
+        <v>45923.25985722222</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>66</v>
@@ -6009,22 +6010,22 @@
         <v>68</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>83</v>
@@ -6039,22 +6040,22 @@
         <v>73</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="Y46" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>94</v>
@@ -6063,30 +6064,30 @@
         <v>88</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AD46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AH46" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>45923.255729166667</v>
+        <v>45923.25571759259</v>
       </c>
       <c r="B47" s="1">
-        <v>45923.260069444441</v>
+        <v>45923.260046296295</v>
       </c>
       <c r="C47">
         <v>100</v>
@@ -6098,10 +6099,10 @@
         <v>65</v>
       </c>
       <c r="F47" s="1">
-        <v>45923.260074502316</v>
+        <v>45923.260061134257</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>66</v>
@@ -6113,28 +6114,28 @@
         <v>68</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>73</v>
@@ -6143,37 +6144,37 @@
         <v>73</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AA47" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC47" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AE47" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AF47" s="2" t="s">
         <v>87</v>
@@ -6182,30 +6183,30 @@
         <v>94</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>45923.255555555559</v>
+        <v>45923.255729166667</v>
       </c>
       <c r="B48" s="1">
-        <v>45923.260254629633</v>
+        <v>45923.260069444441</v>
       </c>
       <c r="C48">
         <v>100</v>
       </c>
       <c r="D48">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F48" s="1">
-        <v>45923.260265590281</v>
+        <v>45923.260074502316</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>66</v>
@@ -6217,49 +6218,49 @@
         <v>68</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>71</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z48" s="2" t="s">
         <v>80</v>
@@ -6271,45 +6272,45 @@
         <v>87</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AF48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AG48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH48" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="49" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45923.254745370374</v>
+        <v>45923.255555555559</v>
       </c>
       <c r="B49" s="1">
-        <v>45923.260335648149</v>
+        <v>45923.260254629633</v>
       </c>
       <c r="C49">
         <v>100</v>
       </c>
       <c r="D49">
-        <v>483</v>
+        <v>406</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F49" s="1">
-        <v>45923.260346249997</v>
+        <v>45923.260265590281</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>66</v>
@@ -6321,28 +6322,28 @@
         <v>68</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>73</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>83</v>
@@ -6351,28 +6352,28 @@
         <v>73</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="W49" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z49" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AA49" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AC49" s="2" t="s">
         <v>80</v>
@@ -6381,39 +6382,39 @@
         <v>80</v>
       </c>
       <c r="AE49" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AF49" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AH49" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>45923.255509259259</v>
+        <v>45923.254745370374</v>
       </c>
       <c r="B50" s="1">
-        <v>45923.260358796295</v>
+        <v>45923.260335648149</v>
       </c>
       <c r="C50">
         <v>100</v>
       </c>
       <c r="D50">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F50" s="1">
-        <v>45923.260367916664</v>
+        <v>45923.260346249997</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>66</v>
@@ -6425,81 +6426,81 @@
         <v>68</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="X50" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Y50" s="2" t="s">
         <v>86</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="AE50" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="AH50" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>45923.255694444444</v>
+        <v>45923.255509259259</v>
       </c>
       <c r="B51" s="1">
         <v>45923.260358796295</v>
@@ -6508,16 +6509,16 @@
         <v>100</v>
       </c>
       <c r="D51">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F51" s="1">
-        <v>45923.260369988428</v>
+        <v>45923.260367916664</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>66</v>
@@ -6529,49 +6530,49 @@
         <v>68</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>72</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>281</v>
+        <v>200</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="W51" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Y51" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>97</v>
@@ -6580,10 +6581,10 @@
         <v>80</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AD51" s="2" t="s">
         <v>94</v>
@@ -6592,36 +6593,36 @@
         <v>97</v>
       </c>
       <c r="AF51" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AH51" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>45923.254814814813</v>
+        <v>45923.255694444444</v>
       </c>
       <c r="B52" s="1">
-        <v>45923.260578703703</v>
+        <v>45923.260358796295</v>
       </c>
       <c r="C52">
         <v>100</v>
       </c>
       <c r="D52">
-        <v>497</v>
+        <v>402</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F52" s="1">
-        <v>45923.260596215281</v>
+        <v>45923.260369988428</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>66</v>
@@ -6633,99 +6634,99 @@
         <v>68</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>71</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q52" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="S52" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="W52" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="X52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AE52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF52" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH52" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>45923.255729166667</v>
+        <v>45923.254814814813</v>
       </c>
       <c r="B53" s="1">
-        <v>45923.261145833334</v>
+        <v>45923.260578703703</v>
       </c>
       <c r="C53">
         <v>100</v>
       </c>
       <c r="D53">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F53" s="1">
-        <v>45923.261156701388</v>
+        <v>45923.260596215281</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>66</v>
@@ -6737,49 +6738,49 @@
         <v>68</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>83</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="T53" s="2" t="s">
         <v>73</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>97</v>
@@ -6788,48 +6789,48 @@
         <v>97</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AC53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AF53" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AG53" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH53" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="195" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>45923.255624999998</v>
+        <v>45923.255729166667</v>
       </c>
       <c r="B54" s="1">
-        <v>45923.262557870374</v>
+        <v>45923.261145833334</v>
       </c>
       <c r="C54">
         <v>100</v>
       </c>
       <c r="D54">
-        <v>599</v>
+        <v>468</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F54" s="1">
-        <v>45923.262569178238</v>
+        <v>45923.261156701388</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>66</v>
@@ -6841,28 +6842,28 @@
         <v>68</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="Q54" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>73</v>
@@ -6871,7 +6872,7 @@
         <v>73</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>107</v>
@@ -6880,44 +6881,148 @@
         <v>95</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AA54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="AF54" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AG54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AH54" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45923.255624999998</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45923.262557870374</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>599</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45923.262569178238</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH55" s="2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AH55" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AH56" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E1:E2 G1:G2 H1:H2 I1:I2 J1:J2 K1:K2 L1:L2 M1:M2 N1:N2 O1:O2 P1:P2 Q1:Q2 R1:R2 S1:S2 T1:T2 U1:U2 V1:V2 W1:W2 X1:X2 Y1:Y2 Z1:Z2 AA1:AA2 AB1:AB2 AC1:AC2 AE1:AE2 AF1:AF2 AG1:AG2 E3:E54 G3:G54 H3:H54 I3:I54 J3:J54 K3:K54 L3:L54 M3:M54 N3:N54 O3:O54 P3:P54 Q3:Q54 R3:R54 S3:S54 T3:T54 U3:U54 V3:V54 W3:W54 X3:X54 Y3:Y54 Z3:Z54 AA3:AA54 AB3:AB54 AC3:AC54 AE3:AE54 AF3:AF54 AG3:AG54" numberStoredAsText="1"/>
+    <ignoredError sqref="E2:E3 G2:G3 H2:H3 I2:I3 J2:J3 K2:K3 L2:L3 M2:M3 N2:N3 O2:O3 P2:P3 Q2:Q3 R2:R3 S2:S3 T2:T3 U2:U3 V2:V3 W2:W3 X2:X3 Y2:Y3 Z2:Z3 AA2:AA3 AB2:AB3 AC2:AC3 AE2:AE3 AF2:AF3 AG2:AG3 E4:E55 G4:G55 H4:H55 I4:I55 J4:J55 K4:K55 L4:L55 M4:M55 N4:N55 O4:O55 P4:P55 Q4:Q55 R4:R55 S4:S55 T4:T55 U4:U55 V4:V55 W4:W55 X4:X55 Y4:Y55 Z4:Z55 AA4:AA55 AB4:AB55 AC4:AC55 AE4:AE55 AF4:AF55 AG4:AG55" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>